--- a/charts/Charts.xlsx
+++ b/charts/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choco\Documents\Project\SOEN - 5\COMP 472\COMP472-A3-Word_Embeddings\charts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE14341F-8614-4055-AEAB-FD738302156E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED920C-9C92-4AAA-AB82-D5A6A5D4D9BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57604CD2-E2DD-4759-8B5E-1D38E79CA083}"/>
+    <workbookView xWindow="17385" yWindow="1980" windowWidth="21585" windowHeight="11355" xr2:uid="{57604CD2-E2DD-4759-8B5E-1D38E79CA083}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>word2vec-google-news-300</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.2100102070574508E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.88049832312627585"/>
+          <c:h val="0.40326151939340915"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -850,19 +863,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>69</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1150,19 +1163,19 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0.88749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.898734177215189</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.936708860759493</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.91025641025641002</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65217391304347805</c:v>
+                  <c:v>0.57692307692307598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73913043478260798</c:v>
+                  <c:v>0.65384615384615297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3963,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09E4654F-71CF-46C5-9E51-9ECA618EB3AF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4006,10 +4019,10 @@
         <v>71</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4">
-        <v>0.898734177215189</v>
+        <v>0.88749999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4023,10 +4036,10 @@
         <v>74</v>
       </c>
       <c r="D3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4">
-        <v>0.936708860759493</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4040,10 +4053,10 @@
         <v>71</v>
       </c>
       <c r="D4">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4">
-        <v>0.91025641025641002</v>
+        <v>0.898734177215189</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4057,10 +4070,10 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E5" s="4">
-        <v>0.65217391304347805</v>
+        <v>0.57692307692307598</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4074,10 +4087,15 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E6" s="4">
-        <v>0.73913043478260798</v>
+        <v>0.65384615384615297</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
